--- a/content/liste-personnel.xlsx
+++ b/content/liste-personnel.xlsx
@@ -6712,8 +6712,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC83367596A4B94585FCDD3502D89912" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="541edf845de3d2afdf6d3265f893e9bc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7c5d7804-4d0b-4e60-9ce8-4dcaa1999ed1" xmlns:ns3="9cb1c2f4-2737-4134-a1af-8acbe3d02830" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c4083cbd4ea975bfc49105317485d76" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC83367596A4B94585FCDD3502D89912" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="4e4efa8c0f0f722bbfc4a6b86077b9b4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7c5d7804-4d0b-4e60-9ce8-4dcaa1999ed1" xmlns:ns3="9cb1c2f4-2737-4134-a1af-8acbe3d02830" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="81c6aeae46cd0fb81a99420a9570330b" ns2:_="" ns3:_="">
     <xsd:import namespace="7c5d7804-4d0b-4e60-9ce8-4dcaa1999ed1"/>
     <xsd:import namespace="9cb1c2f4-2737-4134-a1af-8acbe3d02830"/>
     <xsd:element name="properties">
@@ -6933,22 +6933,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D3F71AA-8F4B-45E5-A31D-B9F9CDD9C657}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7c5d7804-4d0b-4e60-9ce8-4dcaa1999ed1"/>
-    <ds:schemaRef ds:uri="9cb1c2f4-2737-4134-a1af-8acbe3d02830"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCCC2BCD-0310-4A3C-9E4B-6EFDEBA53649}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
